--- a/prix/hammerite.xlsx
+++ b/prix/hammerite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F2453-AB92-4611-A315-E96CD6B872E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DDF47A-5940-4643-98C8-73F45BFE8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="273">
   <si>
     <t>path</t>
   </si>
@@ -816,6 +816,45 @@
   </si>
   <si>
     <t>1L laque satin + Teinte</t>
+  </si>
+  <si>
+    <t>hammerite/600.png</t>
+  </si>
+  <si>
+    <t>hammerite/color.png</t>
+  </si>
+  <si>
+    <t>hammerite/convertisseur-de-rouille.png</t>
+  </si>
+  <si>
+    <t>hammerite/decap-rouille.png</t>
+  </si>
+  <si>
+    <t>hammerite/degraisse-metal.png</t>
+  </si>
+  <si>
+    <t>hammerite/diluant-nettoyant-pinceau.png</t>
+  </si>
+  <si>
+    <t>hammerite/primer-beige.png</t>
+  </si>
+  <si>
+    <t>hammerite/primer-non-ferreux.png</t>
+  </si>
+  <si>
+    <t>hammerite/radiateur-blanc.png</t>
+  </si>
+  <si>
+    <t>hammerite/resistante-chaleur-noir.png</t>
+  </si>
+  <si>
+    <t>hammerite/structure.png</t>
+  </si>
+  <si>
+    <t>hammerite/ultima.png</t>
+  </si>
+  <si>
+    <t>hammerite/base.png</t>
   </si>
 </sst>
 </file>
@@ -1241,12 +1280,12 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="A73" sqref="A73:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1277,7 +1316,9 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B2" s="10" t="s">
         <v>94</v>
       </c>
@@ -1295,7 +1336,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B3" s="10" t="s">
         <v>95</v>
       </c>
@@ -1313,7 +1356,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B4" s="10" t="s">
         <v>96</v>
       </c>
@@ -1331,7 +1376,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
@@ -1349,7 +1396,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
@@ -1367,7 +1416,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B7" s="10" t="s">
         <v>99</v>
       </c>
@@ -1385,7 +1436,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
@@ -1403,7 +1456,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B9" s="10" t="s">
         <v>101</v>
       </c>
@@ -1421,7 +1476,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
@@ -1439,7 +1496,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B11" s="10" t="s">
         <v>103</v>
       </c>
@@ -1457,7 +1516,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>104</v>
       </c>
@@ -1475,7 +1536,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B13" s="10" t="s">
         <v>105</v>
       </c>
@@ -1493,7 +1556,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
@@ -1511,7 +1576,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B15" s="10" t="s">
         <v>107</v>
       </c>
@@ -1529,7 +1596,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B16" s="10" t="s">
         <v>108</v>
       </c>
@@ -1547,7 +1616,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B17" s="10" t="s">
         <v>109</v>
       </c>
@@ -1565,7 +1636,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
@@ -1583,7 +1656,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B19" s="10" t="s">
         <v>111</v>
       </c>
@@ -1601,7 +1676,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B20" s="10" t="s">
         <v>112</v>
       </c>
@@ -1619,7 +1696,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B21" s="10" t="s">
         <v>113</v>
       </c>
@@ -1637,7 +1716,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
@@ -1655,7 +1736,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B23" s="10" t="s">
         <v>115</v>
       </c>
@@ -1673,7 +1756,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B24" s="10" t="s">
         <v>116</v>
       </c>
@@ -1691,7 +1776,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B25" s="10" t="s">
         <v>117</v>
       </c>
@@ -1709,7 +1796,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B26" s="10" t="s">
         <v>118</v>
       </c>
@@ -1727,7 +1816,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
@@ -1745,7 +1836,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B28" s="10" t="s">
         <v>120</v>
       </c>
@@ -1763,7 +1856,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B29" s="10" t="s">
         <v>121</v>
       </c>
@@ -1781,7 +1876,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B30" s="10" t="s">
         <v>122</v>
       </c>
@@ -1799,7 +1896,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B31" s="10" t="s">
         <v>123</v>
       </c>
@@ -1817,7 +1916,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
@@ -1835,7 +1936,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B33" s="10" t="s">
         <v>125</v>
       </c>
@@ -1853,7 +1956,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B34" s="10" t="s">
         <v>126</v>
       </c>
@@ -1871,7 +1976,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B35" s="10" t="s">
         <v>127</v>
       </c>
@@ -1889,7 +1996,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B36" s="10" t="s">
         <v>128</v>
       </c>
@@ -1907,7 +2016,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B37" s="10" t="s">
         <v>129</v>
       </c>
@@ -1925,7 +2036,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B38" s="10" t="s">
         <v>130</v>
       </c>
@@ -1943,7 +2056,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B39" s="10" t="s">
         <v>131</v>
       </c>
@@ -1961,7 +2076,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B40" s="10" t="s">
         <v>132</v>
       </c>
@@ -1979,7 +2096,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B41" s="10" t="s">
         <v>133</v>
       </c>
@@ -1997,7 +2116,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B42" s="10" t="s">
         <v>134</v>
       </c>
@@ -2015,7 +2136,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B43" s="10" t="s">
         <v>135</v>
       </c>
@@ -2033,7 +2156,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B44" s="10" t="s">
         <v>136</v>
       </c>
@@ -2051,7 +2176,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B45" s="10" t="s">
         <v>135</v>
       </c>
@@ -2069,7 +2196,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B46" s="10" t="s">
         <v>137</v>
       </c>
@@ -2087,7 +2216,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B47" s="10" t="s">
         <v>138</v>
       </c>
@@ -2105,7 +2236,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B48" s="10" t="s">
         <v>139</v>
       </c>
@@ -2123,7 +2256,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B49" s="10" t="s">
         <v>140</v>
       </c>
@@ -2141,7 +2276,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B50" s="10" t="s">
         <v>131</v>
       </c>
@@ -2159,7 +2296,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B51" s="10" t="s">
         <v>141</v>
       </c>
@@ -2177,7 +2316,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B52" s="10" t="s">
         <v>142</v>
       </c>
@@ -2195,7 +2336,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B53" s="10" t="s">
         <v>143</v>
       </c>
@@ -2213,7 +2356,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B54" s="10" t="s">
         <v>144</v>
       </c>
@@ -2231,7 +2376,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B55" s="10" t="s">
         <v>145</v>
       </c>
@@ -2249,7 +2396,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="B56" s="10" t="s">
         <v>146</v>
       </c>
@@ -2267,7 +2416,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="B57" s="10" t="s">
         <v>147</v>
       </c>
@@ -2285,7 +2436,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="B58" s="10" t="s">
         <v>148</v>
       </c>
@@ -2303,7 +2456,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="B59" s="10" t="s">
         <v>149</v>
       </c>
@@ -2321,7 +2476,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="B60" s="10" t="s">
         <v>150</v>
       </c>
@@ -2339,7 +2496,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="B61" s="10" t="s">
         <v>151</v>
       </c>
@@ -2357,7 +2516,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="B62" s="10" t="s">
         <v>152</v>
       </c>
@@ -2375,7 +2536,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="B63" s="10" t="s">
         <v>153</v>
       </c>
@@ -2393,7 +2556,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="B64" s="10" t="s">
         <v>154</v>
       </c>
@@ -2411,7 +2576,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="B65" s="10" t="s">
         <v>155</v>
       </c>
@@ -2429,7 +2596,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="B66" s="10" t="s">
         <v>156</v>
       </c>
@@ -2447,7 +2616,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
+      <c r="A67" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="B67" s="10" t="s">
         <v>157</v>
       </c>
@@ -2465,7 +2636,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="B68" s="10" t="s">
         <v>158</v>
       </c>
@@ -2483,7 +2656,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="B69" s="10" t="s">
         <v>159</v>
       </c>
@@ -2501,7 +2676,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="B70" s="10" t="s">
         <v>159</v>
       </c>
@@ -2519,7 +2696,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="B71" s="10" t="s">
         <v>160</v>
       </c>
@@ -2537,7 +2716,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="B72" s="10" t="s">
         <v>161</v>
       </c>
@@ -2555,7 +2736,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="B73" s="10" t="s">
         <v>162</v>
       </c>
@@ -2573,7 +2756,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="B74" s="10" t="s">
         <v>163</v>
       </c>
@@ -2591,7 +2776,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
+      <c r="A75" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="B75" s="10" t="s">
         <v>164</v>
       </c>
@@ -2609,7 +2796,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="B76" s="10" t="s">
         <v>165</v>
       </c>
@@ -2627,7 +2816,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B77" s="10" t="s">
         <v>166</v>
       </c>
@@ -2645,7 +2836,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B78" s="10" t="s">
         <v>167</v>
       </c>
@@ -2663,7 +2856,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B79" s="10" t="s">
         <v>168</v>
       </c>
@@ -2681,7 +2876,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B80" s="10" t="s">
         <v>169</v>
       </c>
@@ -2699,7 +2896,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B81" s="10" t="s">
         <v>170</v>
       </c>
@@ -2717,7 +2916,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
+      <c r="A82" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B82" s="10" t="s">
         <v>171</v>
       </c>
@@ -2735,7 +2936,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
+      <c r="A83" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B83" s="10" t="s">
         <v>172</v>
       </c>
@@ -2753,7 +2956,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
+      <c r="A84" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B84" s="10" t="s">
         <v>173</v>
       </c>
@@ -2771,7 +2976,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B85" s="10" t="s">
         <v>174</v>
       </c>
@@ -2789,7 +2996,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B86" s="10" t="s">
         <v>175</v>
       </c>
@@ -2807,7 +3016,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B87" s="10" t="s">
         <v>176</v>
       </c>
@@ -2825,7 +3036,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+      <c r="A88" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="B88" s="10" t="s">
         <v>177</v>
       </c>

--- a/prix/hammerite.xlsx
+++ b/prix/hammerite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DDF47A-5940-4643-98C8-73F45BFE8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA3239D-315D-478D-AE5C-9280802E50F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -907,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -934,13 +934,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1279,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:A76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1316,7 @@
       <c r="A2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1331,15 +1328,15 @@
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12">
-        <v>3</v>
+      <c r="F2" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1351,15 +1348,15 @@
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
-        <v>1</v>
+      <c r="F3" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1371,7 +1368,7 @@
       <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1379,7 +1376,7 @@
       <c r="A5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1391,7 +1388,7 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1399,7 +1396,7 @@
       <c r="A6" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1411,7 +1408,7 @@
       <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1419,7 +1416,7 @@
       <c r="A7" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1431,7 +1428,7 @@
       <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1439,7 +1436,7 @@
       <c r="A8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1451,7 +1448,7 @@
       <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1459,7 +1456,7 @@
       <c r="A9" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1471,7 +1468,7 @@
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1479,7 +1476,7 @@
       <c r="A10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1491,7 +1488,7 @@
       <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1499,7 +1496,7 @@
       <c r="A11" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1511,7 +1508,7 @@
       <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1519,7 +1516,7 @@
       <c r="A12" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1531,7 +1528,7 @@
       <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1539,7 +1536,7 @@
       <c r="A13" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1551,7 +1548,7 @@
       <c r="E13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1559,7 +1556,7 @@
       <c r="A14" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1571,7 +1568,7 @@
       <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1579,7 +1576,7 @@
       <c r="A15" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1591,7 +1588,7 @@
       <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1599,7 +1596,7 @@
       <c r="A16" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1611,7 +1608,7 @@
       <c r="E16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1619,7 +1616,7 @@
       <c r="A17" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1631,7 +1628,7 @@
       <c r="E17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1639,7 +1636,7 @@
       <c r="A18" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1651,7 +1648,7 @@
       <c r="E18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1659,7 +1656,7 @@
       <c r="A19" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1671,7 +1668,7 @@
       <c r="E19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1679,7 +1676,7 @@
       <c r="A20" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1691,7 +1688,7 @@
       <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1699,7 +1696,7 @@
       <c r="A21" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1711,7 +1708,7 @@
       <c r="E21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1719,7 +1716,7 @@
       <c r="A22" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1731,7 +1728,7 @@
       <c r="E22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1739,7 +1736,7 @@
       <c r="A23" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1751,7 +1748,7 @@
       <c r="E23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1759,7 +1756,7 @@
       <c r="A24" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1771,7 +1768,7 @@
       <c r="E24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1779,7 +1776,7 @@
       <c r="A25" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1791,7 +1788,7 @@
       <c r="E25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1799,7 +1796,7 @@
       <c r="A26" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1811,7 +1808,7 @@
       <c r="E26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1819,7 +1816,7 @@
       <c r="A27" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1831,7 +1828,7 @@
       <c r="E27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1839,7 +1836,7 @@
       <c r="A28" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1851,7 +1848,7 @@
       <c r="E28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1856,7 @@
       <c r="A29" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1871,7 +1868,7 @@
       <c r="E29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1879,7 +1876,7 @@
       <c r="A30" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1891,7 +1888,7 @@
       <c r="E30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1899,7 +1896,7 @@
       <c r="A31" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1911,7 +1908,7 @@
       <c r="E31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1919,7 +1916,7 @@
       <c r="A32" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1931,7 +1928,7 @@
       <c r="E32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1939,7 +1936,7 @@
       <c r="A33" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1951,7 +1948,7 @@
       <c r="E33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1959,7 +1956,7 @@
       <c r="A34" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1971,7 +1968,7 @@
       <c r="E34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1979,7 +1976,7 @@
       <c r="A35" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1991,7 +1988,7 @@
       <c r="E35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1999,7 +1996,7 @@
       <c r="A36" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2011,7 +2008,7 @@
       <c r="E36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2019,7 +2016,7 @@
       <c r="A37" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2031,7 +2028,7 @@
       <c r="E37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2036,7 @@
       <c r="A38" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2051,7 +2048,7 @@
       <c r="E38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2059,7 +2056,7 @@
       <c r="A39" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2071,7 +2068,7 @@
       <c r="E39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2079,7 +2076,7 @@
       <c r="A40" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2091,7 +2088,7 @@
       <c r="E40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2099,7 +2096,7 @@
       <c r="A41" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2111,7 +2108,7 @@
       <c r="E41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2119,7 +2116,7 @@
       <c r="A42" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2131,7 +2128,7 @@
       <c r="E42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2139,7 +2136,7 @@
       <c r="A43" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2151,7 +2148,7 @@
       <c r="E43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2159,7 +2156,7 @@
       <c r="A44" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2171,7 +2168,7 @@
       <c r="E44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2179,7 +2176,7 @@
       <c r="A45" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2191,7 +2188,7 @@
       <c r="E45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2199,7 +2196,7 @@
       <c r="A46" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2211,7 +2208,7 @@
       <c r="E46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2219,7 +2216,7 @@
       <c r="A47" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2231,7 +2228,7 @@
       <c r="E47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2239,7 +2236,7 @@
       <c r="A48" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2251,7 +2248,7 @@
       <c r="E48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2259,7 +2256,7 @@
       <c r="A49" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2271,7 +2268,7 @@
       <c r="E49" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2279,7 +2276,7 @@
       <c r="A50" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2291,7 +2288,7 @@
       <c r="E50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2299,7 +2296,7 @@
       <c r="A51" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2311,7 +2308,7 @@
       <c r="E51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2319,7 +2316,7 @@
       <c r="A52" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2331,7 +2328,7 @@
       <c r="E52" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2339,7 +2336,7 @@
       <c r="A53" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2351,7 +2348,7 @@
       <c r="E53" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2359,7 +2356,7 @@
       <c r="A54" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2371,7 +2368,7 @@
       <c r="E54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2379,7 +2376,7 @@
       <c r="A55" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2391,7 +2388,7 @@
       <c r="E55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2399,7 +2396,7 @@
       <c r="A56" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2411,7 +2408,7 @@
       <c r="E56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2419,7 +2416,7 @@
       <c r="A57" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2431,7 +2428,7 @@
       <c r="E57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2439,7 +2436,7 @@
       <c r="A58" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2451,7 +2448,7 @@
       <c r="E58" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2459,7 +2456,7 @@
       <c r="A59" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2471,7 +2468,7 @@
       <c r="E59" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2479,7 +2476,7 @@
       <c r="A60" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2491,7 +2488,7 @@
       <c r="E60" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2499,7 +2496,7 @@
       <c r="A61" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2511,7 +2508,7 @@
       <c r="E61" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2519,7 +2516,7 @@
       <c r="A62" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2531,7 +2528,7 @@
       <c r="E62" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2539,7 +2536,7 @@
       <c r="A63" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2551,7 +2548,7 @@
       <c r="E63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2559,7 +2556,7 @@
       <c r="A64" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2571,7 +2568,7 @@
       <c r="E64" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2579,7 +2576,7 @@
       <c r="A65" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2591,7 +2588,7 @@
       <c r="E65" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2599,7 +2596,7 @@
       <c r="A66" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2611,7 +2608,7 @@
       <c r="E66" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2619,7 +2616,7 @@
       <c r="A67" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2631,7 +2628,7 @@
       <c r="E67" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2639,7 +2636,7 @@
       <c r="A68" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2651,7 +2648,7 @@
       <c r="E68" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2659,7 +2656,7 @@
       <c r="A69" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2671,7 +2668,7 @@
       <c r="E69" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2679,7 +2676,7 @@
       <c r="A70" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2691,7 +2688,7 @@
       <c r="E70" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2699,7 +2696,7 @@
       <c r="A71" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2711,7 +2708,7 @@
       <c r="E71" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2719,7 +2716,7 @@
       <c r="A72" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2731,7 +2728,7 @@
       <c r="E72" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2739,7 +2736,7 @@
       <c r="A73" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2751,7 +2748,7 @@
       <c r="E73" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +2756,7 @@
       <c r="A74" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2771,7 +2768,7 @@
       <c r="E74" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2779,7 +2776,7 @@
       <c r="A75" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2791,7 +2788,7 @@
       <c r="E75" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2799,7 +2796,7 @@
       <c r="A76" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2811,7 +2808,7 @@
       <c r="E76" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2819,7 +2816,7 @@
       <c r="A77" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2831,7 +2828,7 @@
       <c r="E77" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2839,7 +2836,7 @@
       <c r="A78" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2851,7 +2848,7 @@
       <c r="E78" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2859,7 +2856,7 @@
       <c r="A79" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2871,7 +2868,7 @@
       <c r="E79" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2879,7 +2876,7 @@
       <c r="A80" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2891,7 +2888,7 @@
       <c r="E80" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2899,7 +2896,7 @@
       <c r="A81" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2911,7 +2908,7 @@
       <c r="E81" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2919,7 +2916,7 @@
       <c r="A82" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2931,7 +2928,7 @@
       <c r="E82" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2939,7 +2936,7 @@
       <c r="A83" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2951,7 +2948,7 @@
       <c r="E83" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2959,7 +2956,7 @@
       <c r="A84" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2971,7 +2968,7 @@
       <c r="E84" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2979,7 +2976,7 @@
       <c r="A85" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2991,7 +2988,7 @@
       <c r="E85" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2999,7 +2996,7 @@
       <c r="A86" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3011,7 +3008,7 @@
       <c r="E86" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3019,7 +3016,7 @@
       <c r="A87" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3031,7 +3028,7 @@
       <c r="E87" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="10">
         <v>3</v>
       </c>
     </row>
@@ -3039,7 +3036,7 @@
       <c r="A88" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3051,13 +3048,13 @@
       <c r="E88" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3069,7 +3066,7 @@
       <c r="E89" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="10">
         <v>3</v>
       </c>
     </row>
